--- a/16 Capítulos de libro publicados.xlsx
+++ b/16 Capítulos de libro publicados.xlsx
@@ -22,12 +22,10 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
-    <t>GRUPO DE INNOVACION Y DESARROLLO TECNOLOGICO DE UNISANGIL - IDENTUS</t>
+    <t>Resiliencia y Saneamiento, RESA</t>
   </si>
   <si>
-    <t>6.- Capítulo de libro : Capitulo 11. Diseño de sistema robótico semiautónomo para monitoreo de calidad del agua superficial  México, 2019, Sinergia Mecatrónica, ISBN: 978-607-9394-17-2-, Vol. , págs:127 - 143, Ed. Asociación Mexicana de Mecatrónica  Autores: ANA ROCIO CORDOBA MALAVER 
- 7.- Otro capítulo de libro publicado : Capitulo 11. Diseño de sistema robótico semiautónomo para monitoreo de calidad del agua superficial  México, 2019, Sinergia Mecatrónica, ISBN: 978-607-9394-17-2, Vol. , págs:127 - 143, Ed. Asociación Mexicana de Mecatrónica A.C.  Autores: ANA ROCIO CORDOBA MALAVER, WILSON GAMBOA CONTRERAS, SANDRA JOHANA BENITEZ MUNOZ 
- 8.- Capítulo de libro : Capitulo 11. Diseño de sistema robótico semiautónomo para monitoreo de calidad del agua superficial  Colombia, 2019, Sinergia Mecatrónica, ISBN: 978-607-9394-17-2-, Vol. , págs:127 - 143, Ed. Asociación Mexicana de Mecatrónica A.C.  Autores: SANDRA JOHANA BENITEZ MUNOZ, WILSON GAMBOA CONTRERAS, ANA ROCIO CORDOBA MALAVER</t>
+    <t>23.- Otro capítulo de libro publicado : Monitoreo Ambiental  México, 2004, Ensayos Toxicológicos Y Métodos De Evaluación De Calidad De Aguas Estandarización, Intercalibración, Resultados Y Aplicaciones, ISBN: 9685536333, Vol. 1000, págs:23 - 30, Ed. Autores: MARIA CONSUELO DIAZ BAEZ, Y PICA GRANADOS</t>
   </si>
 </sst>
 </file>
